--- a/data/trans_bre/P1424_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>1.850653091568236</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.028364215086895</v>
+        <v>3.028364215086894</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3.858383209129182</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1.198073482251757</v>
+        <v>1.198073482251756</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3237823424507103</v>
+        <v>0.4537978951526125</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.714671426466707</v>
+        <v>-0.8119466677079766</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.332849068951016</v>
+        <v>-0.1913433727508359</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3654746418429288</v>
+        <v>-0.3310748204207448</v>
       </c>
     </row>
     <row r="6">
@@ -629,14 +629,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.992918802193906</v>
+        <v>3.949990855610393</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.133411422090052</v>
+        <v>7.686181355946864</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>5.899139059002336</v>
+        <v>7.207210867962469</v>
       </c>
     </row>
     <row r="7">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4507183314723287</v>
+        <v>-0.5653440861194919</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8364314761156202</v>
+        <v>1.089193177404856</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3068909773316006</v>
+        <v>-0.4183168016688504</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1361643744577966</v>
+        <v>0.1745299546432795</v>
       </c>
     </row>
     <row r="9">
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.582962249299868</v>
+        <v>2.323119031809056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.461430268402019</v>
+        <v>6.496097285324708</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.355795127972482</v>
+        <v>3.961085495487392</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.216542991479157</v>
+        <v>5.021551830681204</v>
       </c>
     </row>
     <row r="10">
@@ -718,13 +718,13 @@
         <v>3.825492553468599</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.808690978663834</v>
+        <v>1.808690978663835</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.315184163099123</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.423692381658447</v>
+        <v>0.4236923816584473</v>
       </c>
     </row>
     <row r="11">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.971687757944639</v>
+        <v>1.715427093686542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8720552706763791</v>
+        <v>-0.6436282321184374</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.6718812495720667</v>
+        <v>0.6268215943632959</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1643538739250134</v>
+        <v>-0.133285648224957</v>
       </c>
     </row>
     <row r="12">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.676236259713608</v>
+        <v>5.73361201114559</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.978852574981927</v>
+        <v>4.05237332640583</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5.464042718261002</v>
+        <v>5.736463350807561</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.371332072671473</v>
+        <v>1.28352723952769</v>
       </c>
     </row>
     <row r="13">
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.812926657944685</v>
+        <v>2.772340376409969</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.169106488393633</v>
+        <v>2.929855747462247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7311888849279879</v>
+        <v>0.6630801436031274</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4567249445700091</v>
+        <v>0.4375504394242061</v>
       </c>
     </row>
     <row r="15">
@@ -819,16 +819,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.137755095581678</v>
+        <v>7.823282342772774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.057635164828501</v>
+        <v>8.187482288633111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.446195845609669</v>
+        <v>4.011813927955337</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.017577663992878</v>
+        <v>2.055883405637738</v>
       </c>
     </row>
     <row r="16">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.677033408471009</v>
+        <v>3.900070390362955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.952862471763226</v>
+        <v>2.713090962575188</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.6003522672705287</v>
+        <v>0.7063776534228976</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.3777428333064263</v>
+        <v>0.3105846951978022</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.63566275490287</v>
+        <v>10.63150558512778</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.251405644391262</v>
+        <v>8.169955697348206</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4.884626410199321</v>
+        <v>4.500696600803461</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.651940313854343</v>
+        <v>1.620564541643166</v>
       </c>
     </row>
     <row r="19">
@@ -916,7 +916,7 @@
         <v>6.294398381773038</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3.481354433152043</v>
+        <v>3.481354433152044</v>
       </c>
     </row>
     <row r="20">
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.797899167971907</v>
+        <v>5.859408803932728</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.629577646825973</v>
+        <v>6.475398709503592</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.978737142472733</v>
+        <v>2.230965072725826</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.740921863967504</v>
+        <v>1.647238001311122</v>
       </c>
     </row>
     <row r="21">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.84043579732423</v>
+        <v>12.99693789798596</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.79501375316284</v>
+        <v>11.77660768858991</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>18.5544207514812</v>
+        <v>21.88906202029473</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.257210046779571</v>
+        <v>7.25195652621919</v>
       </c>
     </row>
     <row r="22">
@@ -974,13 +974,13 @@
         <v>5.573258272936603</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.658577699314734</v>
+        <v>5.658577699314733</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>2.522059118031624</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1.130066434184038</v>
+        <v>1.130066434184037</v>
       </c>
     </row>
     <row r="23">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.454440976941984</v>
+        <v>2.521521880018212</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.609506859836531</v>
+        <v>2.562588795381604</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.5108508475432231</v>
+        <v>0.5478238461917985</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.3811794105364115</v>
+        <v>0.3774040040585663</v>
       </c>
     </row>
     <row r="24">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.644093901861186</v>
+        <v>9.239660728132803</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.548198599758649</v>
+        <v>8.497391438681429</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>9.811959171021677</v>
+        <v>9.447492426674495</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.335388785288585</v>
+        <v>2.433229755456968</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>4.648459623853652</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4.888154019769205</v>
+        <v>4.888154019769207</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>2.439605688789573</v>
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.677036937808465</v>
+        <v>3.630021770870077</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.839887443787389</v>
+        <v>3.77328885791467</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.566415081389887</v>
+        <v>1.496597937521099</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7892263946510857</v>
+        <v>0.7559073491031092</v>
       </c>
     </row>
     <row r="27">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.725173084281971</v>
+        <v>5.645658279093438</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.010342505430252</v>
+        <v>6.014391182405556</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.587972718457449</v>
+        <v>3.510113881984238</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.637170980295328</v>
+        <v>1.60912862819568</v>
       </c>
     </row>
     <row r="28">
